--- a/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Eosinophilic esophagitis.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Eosinophilic esophagitis.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Presence of skin changes such as sclerodactyly or telangiectasia</t>
+          <t>Progressive dysphagia for solids and liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>These skin manifestations are characteristic of CREST syndrome and are not typically seen in Eosinophilic esophagitis.</t>
+          <t>Type 2 Achalasia is characterized by progressive dysphagia for both solids and liquids due to esophageal motility disorder.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Food impaction episodes</t>
+          <t>Intermittent dysphagia, especially with solids</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Food impaction is a common symptom in Eosinophilic esophagitis due to esophageal inflammation and is less common in CREST syndrome with achalasia.</t>
+          <t>Eosinophilic esophagitis often presents with intermittent dysphagia, particularly for solids, due to esophageal inflammation.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing) that is progressive and associated with weight loss</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Progressive dysphagia with weight loss is more indicative of Type 2 Achalasia associated with CREST syndrome than Eosinophilic esophagitis.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome, which is associated with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of atopic conditions (e.g., asthma, allergic rhinitis)</t>
+          <t>History of food impaction</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Atopic conditions are frequently associated with Eosinophilic esophagitis and are not typically seen in CREST syndrome.</t>
+          <t>Food impaction is a common presentation in eosinophilic esophagitis due to esophageal narrowing.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a common feature of CREST syndrome and is not associated with Eosinophilic esophagitis.</t>
+          <t>Sclerodactyly is a specific manifestation of CREST syndrome, indicating systemic sclerosis involvement.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Intermittent dysphagia that is not progressive</t>
+          <t>History of atopic conditions</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Intermittent dysphagia is more characteristic of Eosinophilic esophagitis, while CREST syndrome typically presents with progressive dysphagia.</t>
+          <t>Eosinophilic esophagitis is frequently associated with atopic conditions such as asthma, eczema, or allergic rhinitis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gastroesophageal reflux symptoms that are resistant to standard treatment</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Refractory reflux symptoms can indicate underlying achalasia, which is more common in CREST syndrome than in Eosinophilic esophagitis.</t>
+          <t>Telangiectasia is a hallmark of CREST syndrome, which can be associated with esophageal involvement.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nausea and vomiting after eating</t>
+          <t>Chest pain not related to heartburn</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nausea and vomiting can occur in Eosinophilic esophagitis due to esophageal dysfunction, which is less common in CREST syndrome.</t>
+          <t>Chest pain in eosinophilic esophagitis is often due to esophageal inflammation and is not typically related to heartburn.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of pulmonary hypertension</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is a complication of CREST syndrome and is not a feature of Eosinophilic esophagitis.</t>
+          <t>Calcinosis is part of the CREST syndrome acronym and supports the diagnosis when present.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of food allergies</t>
+          <t>Symptoms worsen with allergen exposure</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Food allergies are a known trigger for Eosinophilic esophagitis and are not relevant to CREST syndrome.</t>
+          <t>Symptoms of eosinophilic esophagitis can worsen with exposure to specific allergens, reflecting its allergic nature.</t>
         </is>
       </c>
     </row>
@@ -613,22 +613,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of sclerodactyly</t>
+          <t>History of scleroderma</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a common skin manifestation of CREST syndrome, which is not seen in Eosinophilic esophagitis.</t>
+          <t>Scleroderma is a key component of CREST syndrome, which is associated with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of food allergies</t>
+          <t>History of atopic conditions (e.g., asthma, eczema)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Food allergies are commonly associated with Eosinophilic esophagitis and are not a feature of CREST syndrome.</t>
+          <t>Eosinophilic esophagitis is often associated with atopic conditions.</t>
         </is>
       </c>
     </row>
@@ -640,83 +640,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is frequently associated with CREST syndrome and is not a feature of Eosinophilic esophagitis.</t>
+          <t>Raynaud's phenomenon is commonly associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of atopic conditions (e.g., asthma, eczema)</t>
+          <t>Use of proton pump inhibitors (PPIs)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Atopic conditions are frequently seen in patients with Eosinophilic esophagitis, unlike those with CREST syndrome.</t>
+          <t>PPIs are commonly used in the management of Eosinophilic esophagitis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of pulmonary hypertension</t>
+          <t>History of telangiectasia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension can occur in CREST syndrome and is not typically associated with Eosinophilic esophagitis.</t>
+          <t>Telangiectasia is a characteristic feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of eosinophilia</t>
+          <t>History of food allergies</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Eosinophilia is a hallmark of Eosinophilic esophagitis and is not present in CREST syndrome.</t>
+          <t>Food allergies are frequently associated with Eosinophilic esophagitis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>History of calcinosis</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Calcinosis is part of the CREST syndrome acronym and supports this diagnosis.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>History of esophageal dilation procedures</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Patients with Type 2 Achalasia often undergo esophageal dilation, which is less common in Eosinophilic esophagitis.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>History of dietary modifications for symptom relief</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Patients with Eosinophilic esophagitis often modify their diet to manage symptoms, which is less common in CREST syndrome.</t>
+          <t>Esophageal dilation is often performed in Eosinophilic esophagitis due to strictures.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of gastrointestinal reflux disease (GERD)</t>
+          <t>Use of calcium channel blockers</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GERD can be a complication of achalasia, which is more likely in CREST syndrome than in Eosinophilic esophagitis.</t>
+          <t>Calcium channel blockers are often used to manage Raynaud's phenomenon in CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of steroid use for esophageal symptoms</t>
+          <t>Use of topical corticosteroids</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Corticosteroids are often used to treat Eosinophilic esophagitis, while they are not a typical treatment for CREST syndrome.</t>
+          <t>Topical corticosteroids are a common treatment for Eosinophilic esophagitis.</t>
         </is>
       </c>
     </row>
@@ -769,105 +769,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CREST syndrome is associated with autoimmune conditions, suggesting a genetic predisposition.</t>
+          <t>CREST syndrome is associated with autoimmune conditions, which may run in families.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of atopic conditions (e.g., asthma, eczema)</t>
+          <t>Family history of atopic diseases</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Atopic conditions are more commonly associated with Eosinophilic esophagitis, indicating a higher likelihood of this diagnosis.</t>
+          <t>Eosinophilic esophagitis is often associated with atopic conditions like asthma and eczema.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of sclerodactyly or skin changes</t>
+          <t>History of smoking</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Skin changes are characteristic of CREST syndrome, indicating a higher likelihood of this diagnosis.</t>
+          <t>Smoking is a known risk factor for scleroderma, which is related to CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Family history of Eosinophilic esophagitis or allergies</t>
+          <t>History of food allergies</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Genetic predisposition to allergies is a strong indicator for Eosinophilic esophagitis.</t>
+          <t>Eosinophilic esophagitis is frequently linked to food allergies.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Occupational exposure to silica or other environmental triggers</t>
+          <t>Occupational exposure to silica dust</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certain occupations may increase the risk of autoimmune diseases like CREST syndrome.</t>
+          <t>Exposure to silica dust is linked to an increased risk of scleroderma, which is part of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dietary triggers reported in family members</t>
+          <t>Male gender</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Eosinophilic esophagitis is often linked to specific food allergies, which may run in families.</t>
+          <t>Eosinophilic esophagitis is more common in males.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>Female gender</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Raynaud's is commonly associated with CREST syndrome, distinguishing it from Eosinophilic esophagitis.</t>
+          <t>CREST syndrome is more prevalent in females.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of environmental allergies</t>
+          <t>Family history of eosinophilic esophagitis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Environmental allergies are more prevalent in patients with Eosinophilic esophagitis, distinguishing it from CREST syndrome.</t>
+          <t>There is a genetic predisposition to eosinophilic esophagitis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Presence of gastrointestinal symptoms in family members</t>
+          <t>Family history of scleroderma</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Family history of gastrointestinal issues may suggest a genetic link to CREST syndrome.</t>
+          <t>Scleroderma, a component of CREST syndrome, can have a familial pattern.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Increased incidence of eosinophilic disorders in family</t>
+          <t>History of environmental allergies</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A family history of eosinophilic disorders supports the diagnosis of Eosinophilic esophagitis.</t>
+          <t>Environmental allergies are commonly associated with eosinophilic esophagitis.</t>
         </is>
       </c>
     </row>
@@ -915,22 +915,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Skin changes (sclerodactyly)</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark of CREST syndrome and is not present in Eosinophilic esophagitis.</t>
+          <t>Thickening and tightening of the skin on the fingers is characteristic of CREST syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Esophageal tenderness on palpation</t>
+          <t>Normal skin examination</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tenderness may indicate inflammation, which is more characteristic of Eosinophilic esophagitis.</t>
+          <t>Eosinophilic esophagitis does not typically present with skin changes.</t>
         </is>
       </c>
     </row>
@@ -942,83 +942,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasia is commonly observed in CREST syndrome and is not a feature of Eosinophilic esophagitis.</t>
+          <t>Visible small blood vessels on the skin are common in CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Signs of allergic rhinitis</t>
+          <t>Absence of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Allergic rhinitis is often associated with Eosinophilic esophagitis due to its allergic nature.</t>
+          <t>Raynaud's is not associated with eosinophilic esophagitis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia in CREST syndrome is often due to esophageal motility issues, while in Eosinophilic esophagitis it is related to inflammation.</t>
+          <t>Calcium deposits in the skin are indicative of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Weight loss</t>
+          <t>Absence of telangiectasia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Weight loss can occur due to food avoidance in Eosinophilic esophagitis, while it is less common in CREST syndrome.</t>
+          <t>Telangiectasia is not a feature of eosinophilic esophagitis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Reduced peristalsis on physical exam</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Reduced peristalsis is indicative of Type 2 Achalasia, which is associated with CREST syndrome.</t>
+          <t>Episodes of reduced blood flow to fingers and toes are typical in CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Erythematous mucosa on examination</t>
+          <t>Absence of sclerodactyly</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Erythematous mucosa is indicative of inflammation seen in Eosinophilic esophagitis.</t>
+          <t>Sclerodactyly is not seen in eosinophilic esophagitis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gastroesophageal reflux signs</t>
+          <t>Digital ulcers</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gastroesophageal reflux is more common in patients with achalasia than in those with Eosinophilic esophagitis.</t>
+          <t>Ulcers on the fingertips are more common in CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Presence of eosinophils on biopsy</t>
+          <t>Absence of calcinosis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Eosinophils are a key finding in Eosinophilic esophagitis and are not present in CREST syndrome.</t>
+          <t>Calcinosis is not a feature of eosinophilic esophagitis.</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Barium swallow study showing dilated esophagus with decreased peristalsis</t>
+          <t>Manometry showing Type 2 Achalasia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is characteristic of Type 2 Achalasia, which is associated with CREST syndrome.</t>
+          <t>Type 2 Achalasia is characterized by esophageal manometry showing panesophageal pressurization, which is specific to achalasia and not seen in eosinophilic esophagitis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1081,95 +1081,95 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Eosinophilic infiltration is a definitive finding for Eosinophilic esophagitis.</t>
+          <t>Eosinophilic infiltration on biopsy is a hallmark of eosinophilic esophagitis and not seen in CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing elevated resting lower esophageal sphincter (LES) pressure</t>
+          <t>Anticentromere antibodies</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elevated LES pressure is a hallmark of achalasia, supporting the diagnosis of CREST syndrome.</t>
+          <t>Anticentromere antibodies are commonly associated with CREST syndrome and not with eosinophilic esophagitis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Elevated serum eosinophil count</t>
+          <t>Elevated eosinophil count in esophageal tissue</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>An elevated eosinophil count supports the diagnosis of Eosinophilic esophagitis.</t>
+          <t>An elevated eosinophil count in esophageal tissue is indicative of eosinophilic esophagitis and not associated with CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Esophageal imaging revealing esophageal dilation and stasis</t>
+          <t>Barium swallow showing bird-beak appearance</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dilation and stasis are indicative of achalasia, which is more common in CREST syndrome.</t>
+          <t>The bird-beak appearance on barium swallow is indicative of achalasia, particularly in CREST syndrome, and not seen in eosinophilic esophagitis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Endoscopic findings of rings or furrows in the esophagus</t>
+          <t>Endoscopic findings of rings and furrows</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>These findings are characteristic of Eosinophilic esophagitis and not typically seen in achalasia.</t>
+          <t>Rings and furrows on endoscopy are characteristic of eosinophilic esophagitis and not seen in CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Presence of anti-centromere antibodies in serology</t>
+          <t>Esophageal dilation on imaging</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anti-centromere antibodies are often found in CREST syndrome, supporting its diagnosis.</t>
+          <t>Esophageal dilation is a common finding in achalasia due to the failure of the lower esophageal sphincter to relax, unlike in eosinophilic esophagitis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Response to dietary elimination therapy</t>
+          <t>Patchy mucosal eosinophilia on biopsy</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Improvement with dietary changes is indicative of Eosinophilic esophagitis.</t>
+          <t>Patchy mucosal eosinophilia is a specific finding for eosinophilic esophagitis and not present in CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Endoscopic findings of esophageal strictures or webs</t>
+          <t>Absence of eosinophils on esophageal biopsy</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>While strictures can occur in both conditions, they are more commonly associated with achalasia in CREST syndrome.</t>
+          <t>The absence of eosinophils on biopsy is consistent with achalasia and not eosinophilic esophagitis, which is characterized by eosinophilic infiltration.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of significant esophageal dilation on imaging</t>
+          <t>Normal esophageal manometry</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lack of dilation suggests Eosinophilic esophagitis rather than achalasia.</t>
+          <t>Normal esophageal manometry is more consistent with eosinophilic esophagitis, as achalasia would show abnormal manometry results.</t>
         </is>
       </c>
     </row>
